--- a/Zeitaufstellung_Projektreflexion.xlsx
+++ b/Zeitaufstellung_Projektreflexion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAK 4CK (2. Versuch)\SWE\2. Semester\Speiseplan_Ebenauer_Koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259FC906-438E-4E63-AB9B-183DDADD00F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77535765-3652-4E2C-8CC0-4BD6AE6B2603}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{505A1D26-6B2F-463B-916C-27161AD77711}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{505A1D26-6B2F-463B-916C-27161AD77711}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="2" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Johannes, Arnes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Tätigkeitsbeschreibung (bei Bedarf)</t>
   </si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>zu spät mit dem Projekt angefangen -&gt; negativer Stress</t>
+  </si>
+  <si>
+    <t>Oberfläche</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBF3BAE-F194-41ED-A336-772717AB60E6}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,36 +597,36 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5">
         <v>43588</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4">
         <v>30</v>
@@ -642,13 +642,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5">
         <v>43590</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4">
         <v>15</v>
@@ -663,16 +663,24 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43596</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -956,7 +964,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="3">
         <f>SUM(D2:D27)</f>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E28" s="3">
         <f>SUM(E2:E27)</f>
@@ -964,7 +972,7 @@
       </c>
       <c r="F28" s="3">
         <f>SUM(F2:F27)</f>
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -980,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7EBC14-4D32-43FB-82A4-0C911E96BA27}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -993,20 +1001,20 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="12"/>

--- a/Zeitaufstellung_Projektreflexion.xlsx
+++ b/Zeitaufstellung_Projektreflexion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAK 4CK (2. Versuch)\SWE\2. Semester\Speiseplan_Ebenauer_Koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77535765-3652-4E2C-8CC0-4BD6AE6B2603}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE58E08B-F828-496E-943A-6F90DFEB8222}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{505A1D26-6B2F-463B-916C-27161AD77711}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Tätigkeitsbeschreibung (bei Bedarf)</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Oberfläche</t>
+  </si>
+  <si>
+    <t>Oberfläche, Datenbank und Code</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,14 +688,24 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43597</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
+        <v>60</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -964,7 +977,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="3">
         <f>SUM(D2:D27)</f>
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="E28" s="3">
         <f>SUM(E2:E27)</f>
@@ -972,7 +985,7 @@
       </c>
       <c r="F28" s="3">
         <f>SUM(F2:F27)</f>
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="G28" s="1"/>
     </row>

--- a/Zeitaufstellung_Projektreflexion.xlsx
+++ b/Zeitaufstellung_Projektreflexion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAK 4CK (2. Versuch)\SWE\2. Semester\Speiseplan_Ebenauer_Koenig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE58E08B-F828-496E-943A-6F90DFEB8222}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96C0855-9177-4540-B956-A40707210D8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{505A1D26-6B2F-463B-916C-27161AD77711}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Tätigkeitsbeschreibung (bei Bedarf)</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Oberfläche, Datenbank und Code</t>
+  </si>
+  <si>
+    <t>Datenbank, Code</t>
+  </si>
+  <si>
+    <t>Klassen, Code</t>
   </si>
 </sst>
 </file>
@@ -585,7 +591,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,38 +704,56 @@
         <v>10</v>
       </c>
       <c r="D5" s="4">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5">
+        <v>43598</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
+        <v>15</v>
+      </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5">
+        <v>43599</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>15</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -977,15 +1001,15 @@
       <c r="C28" s="1"/>
       <c r="D28" s="3">
         <f>SUM(D2:D27)</f>
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E28" s="3">
         <f>SUM(E2:E27)</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F28" s="3">
         <f>SUM(F2:F27)</f>
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G28" s="1"/>
     </row>
